--- a/outputs-HGR-r202/f__CAG-239.xlsx
+++ b/outputs-HGR-r202/f__CAG-239.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2335,55 +2335,55 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42116.fa</t>
+          <t>even_MAG-GUT42210.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.8994259544661888</v>
+        <v>0.0008119429974810963</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0001432873553738313</v>
+        <v>0.000505484304881843</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1002926630892602</v>
+        <v>0.9986825343728547</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0001380950891771361</v>
+        <v>3.832478236300108e-08</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8994259544661888</v>
+        <v>0.9986825343728547</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>g__51-20</t>
+          <t>g__CAG-495</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>g__51-20</t>
+          <t>g__CAG-495</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42210.fa</t>
+          <t>even_MAG-GUT42294.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0008119429974810963</v>
+        <v>0.008599946008066723</v>
       </c>
       <c r="C61" t="n">
-        <v>0.000505484304881843</v>
+        <v>0.004072154625519906</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9986825343728547</v>
+        <v>0.9873278981989665</v>
       </c>
       <c r="E61" t="n">
-        <v>3.832478236300108e-08</v>
+        <v>1.16744687607501e-09</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9986825343728547</v>
+        <v>0.9873278981989665</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2399,23 +2399,23 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42294.fa</t>
+          <t>even_MAG-GUT43269.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.008599946008066723</v>
+        <v>0.004975091152533309</v>
       </c>
       <c r="C62" t="n">
-        <v>0.004072154625519906</v>
+        <v>0.0004763271293853111</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9873278981989665</v>
+        <v>0.9945485801233261</v>
       </c>
       <c r="E62" t="n">
-        <v>1.16744687607501e-09</v>
+        <v>1.594755240390582e-09</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9873278981989665</v>
+        <v>0.9945485801233261</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2431,23 +2431,23 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43269.fa</t>
+          <t>even_MAG-GUT43691.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.004975091152533309</v>
+        <v>0.002386368347259882</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0004763271293853111</v>
+        <v>0.0001029924305250426</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9945485801233261</v>
+        <v>0.9975106369675589</v>
       </c>
       <c r="E63" t="n">
-        <v>1.594755240390582e-09</v>
+        <v>2.254656226499273e-09</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9945485801233261</v>
+        <v>0.9975106369675589</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2463,23 +2463,23 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43691.fa</t>
+          <t>even_MAG-GUT44212.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.002386368347259882</v>
+        <v>0.001653154116812117</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0001029924305250426</v>
+        <v>0.006110340060491364</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9975106369675589</v>
+        <v>0.99216658963263</v>
       </c>
       <c r="E64" t="n">
-        <v>2.254656226499273e-09</v>
+        <v>6.991619006652686e-05</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9975106369675589</v>
+        <v>0.99216658963263</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2495,23 +2495,23 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44212.fa</t>
+          <t>even_MAG-GUT44748.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.001653154116812117</v>
+        <v>0.0004595206373946932</v>
       </c>
       <c r="C65" t="n">
-        <v>0.006110340060491364</v>
+        <v>0.0009887719275688284</v>
       </c>
       <c r="D65" t="n">
-        <v>0.99216658963263</v>
+        <v>0.998551706441715</v>
       </c>
       <c r="E65" t="n">
-        <v>6.991619006652686e-05</v>
+        <v>9.933214774188873e-10</v>
       </c>
       <c r="F65" t="n">
-        <v>0.99216658963263</v>
+        <v>0.998551706441715</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2527,23 +2527,23 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44748.fa</t>
+          <t>even_MAG-GUT44855.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0004595206373946932</v>
+        <v>0.003669838397099575</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0009887719275688284</v>
+        <v>0.02104143027303431</v>
       </c>
       <c r="D66" t="n">
-        <v>0.998551706441715</v>
+        <v>0.9752887305383182</v>
       </c>
       <c r="E66" t="n">
-        <v>9.933214774188873e-10</v>
+        <v>7.915479090519393e-10</v>
       </c>
       <c r="F66" t="n">
-        <v>0.998551706441715</v>
+        <v>0.9752887305383182</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2559,23 +2559,23 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44855.fa</t>
+          <t>even_MAG-GUT45352.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.003669838397099575</v>
+        <v>0.005313554354193682</v>
       </c>
       <c r="C67" t="n">
-        <v>0.02104143027303431</v>
+        <v>0.004009189556814885</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9752887305383182</v>
+        <v>0.9906772527814593</v>
       </c>
       <c r="E67" t="n">
-        <v>7.915479090519393e-10</v>
+        <v>3.307532096506401e-09</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9752887305383182</v>
+        <v>0.9906772527814593</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2591,23 +2591,23 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45352.fa</t>
+          <t>even_MAG-GUT45758.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.005313554354193682</v>
+        <v>0.001792584348485329</v>
       </c>
       <c r="C68" t="n">
-        <v>0.004009189556814885</v>
+        <v>0.02572326072210689</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9906772527814593</v>
+        <v>0.9724841549209361</v>
       </c>
       <c r="E68" t="n">
-        <v>3.307532096506401e-09</v>
+        <v>8.471697227365358e-12</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9906772527814593</v>
+        <v>0.9724841549209361</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2623,23 +2623,23 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45758.fa</t>
+          <t>even_MAG-GUT46039.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.001792584348485329</v>
+        <v>0.006275950735927512</v>
       </c>
       <c r="C69" t="n">
-        <v>0.02572326072210689</v>
+        <v>7.976608123031576e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9724841549209361</v>
+        <v>0.9936442830933644</v>
       </c>
       <c r="E69" t="n">
-        <v>8.471697227365358e-12</v>
+        <v>8.947782802791372e-11</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9724841549209361</v>
+        <v>0.9936442830933644</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2655,23 +2655,23 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46039.fa</t>
+          <t>even_MAG-GUT47176.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.006275950735927512</v>
+        <v>0.07401707363265353</v>
       </c>
       <c r="C70" t="n">
-        <v>7.976608123031576e-05</v>
+        <v>0.3621952498498264</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9936442830933644</v>
+        <v>0.5637876650232292</v>
       </c>
       <c r="E70" t="n">
-        <v>8.947782802791372e-11</v>
+        <v>1.149429082877084e-08</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9936442830933644</v>
+        <v>0.5637876650232292</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2680,30 +2680,30 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>g__CAG-495</t>
+          <t>g__CAG-495(reject)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47176.fa</t>
+          <t>even_MAG-GUT48302.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.07401707363265353</v>
+        <v>0.0008389469685860534</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3621952498498264</v>
+        <v>0.01705676757322198</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5637876650232292</v>
+        <v>0.9821042854567001</v>
       </c>
       <c r="E71" t="n">
-        <v>1.149429082877084e-08</v>
+        <v>1.491789175590105e-12</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5637876650232292</v>
+        <v>0.9821042854567001</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2712,30 +2712,30 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>g__CAG-495(reject)</t>
+          <t>g__CAG-495</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48302.fa</t>
+          <t>even_MAG-GUT50003.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.0008389469685860534</v>
+        <v>0.001626164219244225</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01705676757322198</v>
+        <v>0.001058103825510253</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9821042854567001</v>
+        <v>0.9973157309566116</v>
       </c>
       <c r="E72" t="n">
-        <v>1.491789175590105e-12</v>
+        <v>9.986340222252093e-10</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9821042854567001</v>
+        <v>0.9973157309566116</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2751,23 +2751,23 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50003.fa</t>
+          <t>even_MAG-GUT50015.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.001626164219244225</v>
+        <v>0.0007985628606961963</v>
       </c>
       <c r="C73" t="n">
-        <v>0.001058103825510253</v>
+        <v>0.0001295825450319926</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9973157309566116</v>
+        <v>0.9990718542831729</v>
       </c>
       <c r="E73" t="n">
-        <v>9.986340222252093e-10</v>
+        <v>3.110989948538521e-10</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9973157309566116</v>
+        <v>0.9990718542831729</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2783,23 +2783,23 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50015.fa</t>
+          <t>even_MAG-GUT50121.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.0007985628606961963</v>
+        <v>0.004401566354064339</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0001295825450319926</v>
+        <v>0.01852596975863142</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9990718542831729</v>
+        <v>0.9767348765471974</v>
       </c>
       <c r="E74" t="n">
-        <v>3.110989948538521e-10</v>
+        <v>0.0003375873401068157</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9990718542831729</v>
+        <v>0.9767348765471974</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2815,23 +2815,23 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50121.fa</t>
+          <t>even_MAG-GUT50132.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.004401566354064339</v>
+        <v>0.004481262504258916</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01852596975863142</v>
+        <v>0.03114265791411618</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9767348765471974</v>
+        <v>0.9641780816794683</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0003375873401068157</v>
+        <v>0.0001979979021566117</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9767348765471974</v>
+        <v>0.9641780816794683</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2847,55 +2847,55 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50132.fa</t>
+          <t>even_MAG-GUT50866.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.004481262504258916</v>
+        <v>0.9907842937251757</v>
       </c>
       <c r="C76" t="n">
-        <v>0.03114265791411618</v>
+        <v>4.590337232258185e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9641780816794683</v>
+        <v>0.009169765916360009</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0001979979021566117</v>
+        <v>3.698614157724125e-08</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9641780816794683</v>
+        <v>0.9907842937251757</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>g__CAG-495</t>
+          <t>g__51-20</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>g__CAG-495</t>
+          <t>g__51-20</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50866.fa</t>
+          <t>even_MAG-GUT50872.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9907842937251757</v>
+        <v>0.9651010339598766</v>
       </c>
       <c r="C77" t="n">
-        <v>4.590337232258185e-05</v>
+        <v>5.022611888655181e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>0.009169765916360009</v>
+        <v>0.03484867966826836</v>
       </c>
       <c r="E77" t="n">
-        <v>3.698614157724125e-08</v>
+        <v>6.025296861901008e-08</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9907842937251757</v>
+        <v>0.9651010339598766</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2911,55 +2911,55 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50872.fa</t>
+          <t>even_MAG-GUT50906.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9651010339598766</v>
+        <v>0.01095629128613528</v>
       </c>
       <c r="C78" t="n">
-        <v>5.022611888655181e-05</v>
+        <v>0.004459212227616572</v>
       </c>
       <c r="D78" t="n">
-        <v>0.03484867966826836</v>
+        <v>0.9845844964845046</v>
       </c>
       <c r="E78" t="n">
-        <v>6.025296861901008e-08</v>
+        <v>1.743470108097687e-12</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9651010339598766</v>
+        <v>0.9845844964845046</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>g__51-20</t>
+          <t>g__CAG-495</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>g__51-20</t>
+          <t>g__CAG-495</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50906.fa</t>
+          <t>even_MAG-GUT50925.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01095629128613528</v>
+        <v>0.004507211904417972</v>
       </c>
       <c r="C79" t="n">
-        <v>0.004459212227616572</v>
+        <v>0.007927489015231456</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9845844964845046</v>
+        <v>0.9875652990666272</v>
       </c>
       <c r="E79" t="n">
-        <v>1.743470108097687e-12</v>
+        <v>1.372344200616218e-11</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9845844964845046</v>
+        <v>0.9875652990666272</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2975,23 +2975,23 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50925.fa</t>
+          <t>even_MAG-GUT50928.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.004507211904417972</v>
+        <v>0.001255016924918099</v>
       </c>
       <c r="C80" t="n">
-        <v>0.007927489015231456</v>
+        <v>0.002247547978501479</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9875652990666272</v>
+        <v>0.9964974350941547</v>
       </c>
       <c r="E80" t="n">
-        <v>1.372344200616218e-11</v>
+        <v>2.425710234053487e-12</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9875652990666272</v>
+        <v>0.9964974350941547</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3007,23 +3007,23 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50928.fa</t>
+          <t>even_MAG-GUT50936.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.001255016924918099</v>
+        <v>0.003383507077795869</v>
       </c>
       <c r="C81" t="n">
-        <v>0.002247547978501479</v>
+        <v>0.01048938541845629</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9964974350941547</v>
+        <v>0.986127107446463</v>
       </c>
       <c r="E81" t="n">
-        <v>2.425710234053487e-12</v>
+        <v>5.7284847025387e-11</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9964974350941547</v>
+        <v>0.986127107446463</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3039,23 +3039,23 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50936.fa</t>
+          <t>even_MAG-GUT52923.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.003383507077795869</v>
+        <v>0.00260477769570473</v>
       </c>
       <c r="C82" t="n">
-        <v>0.01048938541845629</v>
+        <v>0.03747897652946654</v>
       </c>
       <c r="D82" t="n">
-        <v>0.986127107446463</v>
+        <v>0.9599074929292237</v>
       </c>
       <c r="E82" t="n">
-        <v>5.7284847025387e-11</v>
+        <v>8.752845605042114e-06</v>
       </c>
       <c r="F82" t="n">
-        <v>0.986127107446463</v>
+        <v>0.9599074929292237</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3071,23 +3071,23 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52916.fa</t>
+          <t>even_MAG-GUT52941.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.007961744803647936</v>
+        <v>0.009529863661483938</v>
       </c>
       <c r="C83" t="n">
-        <v>0.07043681755896587</v>
+        <v>0.003982359343222219</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9201539507265799</v>
+        <v>0.9864783692426498</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001447486910806333</v>
+        <v>9.407752644120183e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9201539507265799</v>
+        <v>0.9864783692426498</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3103,23 +3103,23 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52923.fa</t>
+          <t>even_MAG-GUT53133.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.00260477769570473</v>
+        <v>0.001359114767826094</v>
       </c>
       <c r="C84" t="n">
-        <v>0.03747897652946654</v>
+        <v>0.008406354390385512</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9599074929292237</v>
+        <v>0.9902345308323077</v>
       </c>
       <c r="E84" t="n">
-        <v>8.752845605042114e-06</v>
+        <v>9.480738034895938e-12</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9599074929292237</v>
+        <v>0.9902345308323077</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3135,23 +3135,23 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52941.fa</t>
+          <t>even_MAG-GUT53142.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.009529863661483938</v>
+        <v>0.05238936315393602</v>
       </c>
       <c r="C85" t="n">
-        <v>0.003982359343222219</v>
+        <v>0.1681276237801959</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9864783692426498</v>
+        <v>0.7794821709232167</v>
       </c>
       <c r="E85" t="n">
-        <v>9.407752644120183e-06</v>
+        <v>8.421426513014826e-07</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9864783692426498</v>
+        <v>0.7794821709232167</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3167,23 +3167,23 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53133.fa</t>
+          <t>even_MAG-GUT65550.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.001359114767826094</v>
+        <v>0.009296884034705804</v>
       </c>
       <c r="C86" t="n">
-        <v>0.008406354390385512</v>
+        <v>0.01031216474916041</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9902345308323077</v>
+        <v>0.9803865104944938</v>
       </c>
       <c r="E86" t="n">
-        <v>9.480738034895938e-12</v>
+        <v>4.440721639918785e-06</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9902345308323077</v>
+        <v>0.9803865104944938</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3199,23 +3199,23 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53142.fa</t>
+          <t>even_MAG-GUT65895.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.05238936315393602</v>
+        <v>0.007491354988673047</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1681276237801959</v>
+        <v>0.02173681978577699</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7794821709232167</v>
+        <v>0.9707718251175579</v>
       </c>
       <c r="E87" t="n">
-        <v>8.421426513014826e-07</v>
+        <v>1.079921058773358e-10</v>
       </c>
       <c r="F87" t="n">
-        <v>0.7794821709232167</v>
+        <v>0.9707718251175579</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3231,23 +3231,23 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65550.fa</t>
+          <t>even_MAG-GUT6619.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.009296884034705804</v>
+        <v>9.425646210817615e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>0.01031216474916041</v>
+        <v>0.007758746016650189</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9803865104944938</v>
+        <v>0.9921418056031791</v>
       </c>
       <c r="E88" t="n">
-        <v>4.440721639918785e-06</v>
+        <v>5.191918062566778e-06</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9803865104944938</v>
+        <v>0.9921418056031791</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3263,55 +3263,55 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65895.fa</t>
+          <t>even_MAG-GUT6623.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.007491354988673047</v>
+        <v>0.9257440410807817</v>
       </c>
       <c r="C89" t="n">
-        <v>0.02173681978577699</v>
+        <v>2.355769575959368e-05</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9707718251175579</v>
+        <v>0.07420904682571146</v>
       </c>
       <c r="E89" t="n">
-        <v>1.079921058773358e-10</v>
+        <v>2.335439774726898e-05</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9707718251175579</v>
+        <v>0.9257440410807817</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>g__CAG-495</t>
+          <t>g__51-20</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>g__CAG-495</t>
+          <t>g__51-20</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6619.fa</t>
+          <t>even_MAG-GUT66279.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>9.425646210817615e-05</v>
+        <v>0.008331990837381405</v>
       </c>
       <c r="C90" t="n">
-        <v>0.007758746016650189</v>
+        <v>0.0005844790934849581</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9921418056031791</v>
+        <v>0.991083511817439</v>
       </c>
       <c r="E90" t="n">
-        <v>5.191918062566778e-06</v>
+        <v>1.825169461827713e-08</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9921418056031791</v>
+        <v>0.991083511817439</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3327,55 +3327,55 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6623.fa</t>
+          <t>even_MAG-GUT66843.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9257440410807817</v>
+        <v>0.002823866034083208</v>
       </c>
       <c r="C91" t="n">
-        <v>2.355769575959368e-05</v>
+        <v>0.02200529939129939</v>
       </c>
       <c r="D91" t="n">
-        <v>0.07420904682571146</v>
+        <v>0.975170834572007</v>
       </c>
       <c r="E91" t="n">
-        <v>2.335439774726898e-05</v>
+        <v>2.610287216606598e-12</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9257440410807817</v>
+        <v>0.975170834572007</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>g__51-20</t>
+          <t>g__CAG-495</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>g__51-20</t>
+          <t>g__CAG-495</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66279.fa</t>
+          <t>even_MAG-GUT66846.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.008331990837381405</v>
+        <v>0.004006237913013441</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0005844790934849581</v>
+        <v>0.0050493018283947</v>
       </c>
       <c r="D92" t="n">
-        <v>0.991083511817439</v>
+        <v>0.9909444594661934</v>
       </c>
       <c r="E92" t="n">
-        <v>1.825169461827713e-08</v>
+        <v>7.923985341074664e-10</v>
       </c>
       <c r="F92" t="n">
-        <v>0.991083511817439</v>
+        <v>0.9909444594661934</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3391,23 +3391,23 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66843.fa</t>
+          <t>even_MAG-GUT6708.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.002823866034083208</v>
+        <v>0.02702292638962315</v>
       </c>
       <c r="C93" t="n">
-        <v>0.02200529939129939</v>
+        <v>0.001852254413186932</v>
       </c>
       <c r="D93" t="n">
-        <v>0.975170834572007</v>
+        <v>0.9711248011624105</v>
       </c>
       <c r="E93" t="n">
-        <v>2.610287216606598e-12</v>
+        <v>1.80347793662648e-08</v>
       </c>
       <c r="F93" t="n">
-        <v>0.975170834572007</v>
+        <v>0.9711248011624105</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3423,23 +3423,23 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66846.fa</t>
+          <t>even_MAG-GUT6722.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.004006237913013441</v>
+        <v>0.0002056327051319068</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0050493018283947</v>
+        <v>0.005876019199320143</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9909444594661934</v>
+        <v>0.9939123789733313</v>
       </c>
       <c r="E94" t="n">
-        <v>7.923985341074664e-10</v>
+        <v>5.969122216601297e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9909444594661934</v>
+        <v>0.9939123789733313</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3455,23 +3455,23 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6708.fa</t>
+          <t>even_MAG-GUT67367.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.02702292638962315</v>
+        <v>0.003252803806898321</v>
       </c>
       <c r="C95" t="n">
-        <v>0.001852254413186932</v>
+        <v>0.004752200611704775</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9711248011624105</v>
+        <v>0.9919871011404729</v>
       </c>
       <c r="E95" t="n">
-        <v>1.80347793662648e-08</v>
+        <v>7.894440923982229e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9711248011624105</v>
+        <v>0.9919871011404729</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3487,23 +3487,23 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6722.fa</t>
+          <t>even_MAG-GUT67550.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0002056327051319068</v>
+        <v>0.002698630043223155</v>
       </c>
       <c r="C96" t="n">
-        <v>0.005876019199320143</v>
+        <v>0.001022739098081559</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9939123789733313</v>
+        <v>0.9962786308422555</v>
       </c>
       <c r="E96" t="n">
-        <v>5.969122216601297e-06</v>
+        <v>1.643965159772105e-11</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9939123789733313</v>
+        <v>0.9962786308422555</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3519,23 +3519,23 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67367.fa</t>
+          <t>even_MAG-GUT67681.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.003252803806898321</v>
+        <v>0.002109213454138649</v>
       </c>
       <c r="C97" t="n">
-        <v>0.004752200611704775</v>
+        <v>0.00391978122098953</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9919871011404729</v>
+        <v>0.9939710051912602</v>
       </c>
       <c r="E97" t="n">
-        <v>7.894440923982229e-06</v>
+        <v>1.336114999333239e-10</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9919871011404729</v>
+        <v>0.9939710051912602</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3551,23 +3551,23 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67550.fa</t>
+          <t>even_MAG-GUT67689.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.002698630043223155</v>
+        <v>0.004469196269407619</v>
       </c>
       <c r="C98" t="n">
-        <v>0.001022739098081559</v>
+        <v>0.001799778119973877</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9962786308422555</v>
+        <v>0.9937309967931726</v>
       </c>
       <c r="E98" t="n">
-        <v>1.643965159772105e-11</v>
+        <v>2.881744585917241e-08</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9962786308422555</v>
+        <v>0.9937309967931726</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3583,23 +3583,23 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67681.fa</t>
+          <t>even_MAG-GUT68091.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.002109213454138649</v>
+        <v>0.002090485240776254</v>
       </c>
       <c r="C99" t="n">
-        <v>0.00391978122098953</v>
+        <v>0.01837106610007505</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9939710051912602</v>
+        <v>0.9795381585314068</v>
       </c>
       <c r="E99" t="n">
-        <v>1.336114999333239e-10</v>
+        <v>2.901277418574566e-07</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9939710051912602</v>
+        <v>0.9795381585314068</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3615,23 +3615,23 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67689.fa</t>
+          <t>even_MAG-GUT68308.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.004469196269407619</v>
+        <v>0.001036871783377804</v>
       </c>
       <c r="C100" t="n">
-        <v>0.001799778119973877</v>
+        <v>0.001321755179121699</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9937309967931726</v>
+        <v>0.9976413461564587</v>
       </c>
       <c r="E100" t="n">
-        <v>2.881744585917241e-08</v>
+        <v>2.68810418399167e-08</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9937309967931726</v>
+        <v>0.9976413461564587</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3647,23 +3647,23 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68091.fa</t>
+          <t>even_MAG-GUT68561.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.002090485240776254</v>
+        <v>0.002728234085803431</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01837106610007505</v>
+        <v>0.001445518988881397</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9795381585314068</v>
+        <v>0.9958262434848857</v>
       </c>
       <c r="E101" t="n">
-        <v>2.901277418574566e-07</v>
+        <v>3.44042943786159e-09</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9795381585314068</v>
+        <v>0.9958262434848857</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3679,23 +3679,23 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68308.fa</t>
+          <t>even_MAG-GUT68780.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.001036871783377804</v>
+        <v>0.00616671839636642</v>
       </c>
       <c r="C102" t="n">
-        <v>0.001321755179121699</v>
+        <v>0.002197632405228858</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9976413461564587</v>
+        <v>0.9916356458994422</v>
       </c>
       <c r="E102" t="n">
-        <v>2.68810418399167e-08</v>
+        <v>3.2989626266943e-09</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9976413461564587</v>
+        <v>0.9916356458994422</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3711,23 +3711,23 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68561.fa</t>
+          <t>even_MAG-GUT69595.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.002728234085803431</v>
+        <v>0.0001097499747590133</v>
       </c>
       <c r="C103" t="n">
-        <v>0.001445518988881397</v>
+        <v>0.002188186816183304</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9958262434848857</v>
+        <v>0.997702035101789</v>
       </c>
       <c r="E103" t="n">
-        <v>3.44042943786159e-09</v>
+        <v>2.810726864600142e-08</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9958262434848857</v>
+        <v>0.997702035101789</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3743,23 +3743,23 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68780.fa</t>
+          <t>even_MAG-GUT69640.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.00616671839636642</v>
+        <v>0.05492420680272941</v>
       </c>
       <c r="C104" t="n">
-        <v>0.002197632405228858</v>
+        <v>0.00178488947638889</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9916356458994422</v>
+        <v>0.9432908218583043</v>
       </c>
       <c r="E104" t="n">
-        <v>3.2989626266943e-09</v>
+        <v>8.186257735383834e-08</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9916356458994422</v>
+        <v>0.9432908218583043</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3775,23 +3775,23 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69595.fa</t>
+          <t>even_MAG-GUT69665.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.0001097499747590133</v>
+        <v>0.0003588086386902025</v>
       </c>
       <c r="C105" t="n">
-        <v>0.002188186816183304</v>
+        <v>0.0006344040610715959</v>
       </c>
       <c r="D105" t="n">
-        <v>0.997702035101789</v>
+        <v>0.9990067856431575</v>
       </c>
       <c r="E105" t="n">
-        <v>2.810726864600142e-08</v>
+        <v>1.657080820931042e-09</v>
       </c>
       <c r="F105" t="n">
-        <v>0.997702035101789</v>
+        <v>0.9990067856431575</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3807,23 +3807,23 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69640.fa</t>
+          <t>even_MAG-GUT69729.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.05492420680272941</v>
+        <v>0.00498181747011649</v>
       </c>
       <c r="C106" t="n">
-        <v>0.00178488947638889</v>
+        <v>0.005467184028679957</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9432908218583043</v>
+        <v>0.9895509985010993</v>
       </c>
       <c r="E106" t="n">
-        <v>8.186257735383834e-08</v>
+        <v>1.042158584897947e-13</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9432908218583043</v>
+        <v>0.9895509985010993</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3839,23 +3839,23 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69665.fa</t>
+          <t>even_MAG-GUT70635.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.0003588086386902025</v>
+        <v>0.03151624255401162</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0006344040610715959</v>
+        <v>0.03068224156039064</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9990067856431575</v>
+        <v>0.9368228130563363</v>
       </c>
       <c r="E107" t="n">
-        <v>1.657080820931042e-09</v>
+        <v>0.0009787028292614342</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9990067856431575</v>
+        <v>0.9368228130563363</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3871,55 +3871,55 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69729.fa</t>
+          <t>even_MAG-GUT70973.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.00498181747011649</v>
+        <v>0.984654597597203</v>
       </c>
       <c r="C108" t="n">
-        <v>0.005467184028679957</v>
+        <v>0.00851910542065196</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9895509985010993</v>
+        <v>0.006826296764769852</v>
       </c>
       <c r="E108" t="n">
-        <v>1.042158584897947e-13</v>
+        <v>2.173751413904698e-10</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9895509985010993</v>
+        <v>0.984654597597203</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>g__CAG-495</t>
+          <t>g__51-20</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>g__CAG-495</t>
+          <t>g__51-20</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70635.fa</t>
+          <t>even_MAG-GUT71390.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.03151624255401162</v>
+        <v>0.0006883171112523252</v>
       </c>
       <c r="C109" t="n">
-        <v>0.03068224156039064</v>
+        <v>0.007094199768682777</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9368228130563363</v>
+        <v>0.9922174831091572</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0009787028292614342</v>
+        <v>1.090769038276617e-11</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9368228130563363</v>
+        <v>0.9922174831091572</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3935,55 +3935,55 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70973.fa</t>
+          <t>even_MAG-GUT72079.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.984654597597203</v>
+        <v>4.255169903200724e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>0.00851910542065196</v>
+        <v>0.0004159130371358276</v>
       </c>
       <c r="D110" t="n">
-        <v>0.006826296764769852</v>
+        <v>0.9995415255058053</v>
       </c>
       <c r="E110" t="n">
-        <v>2.173751413904698e-10</v>
+        <v>9.75802689548661e-09</v>
       </c>
       <c r="F110" t="n">
-        <v>0.984654597597203</v>
+        <v>0.9995415255058053</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>g__51-20</t>
+          <t>g__CAG-495</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>g__51-20</t>
+          <t>g__CAG-495</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT71390.fa</t>
+          <t>even_MAG-GUT72100.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.0006883171112523252</v>
+        <v>0.004902709770171148</v>
       </c>
       <c r="C111" t="n">
-        <v>0.007094199768682777</v>
+        <v>8.675530161575344e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9922174831091572</v>
+        <v>0.995010504056561</v>
       </c>
       <c r="E111" t="n">
-        <v>1.090769038276617e-11</v>
+        <v>3.087165206173299e-08</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9922174831091572</v>
+        <v>0.995010504056561</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3999,23 +3999,23 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72079.fa</t>
+          <t>even_MAG-GUT72283.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4.255169903200724e-05</v>
+        <v>0.004445556683201973</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0004159130371358276</v>
+        <v>0.004215130760681116</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9995415255058053</v>
+        <v>0.9913393125512373</v>
       </c>
       <c r="E112" t="n">
-        <v>9.75802689548661e-09</v>
+        <v>4.879595022548564e-12</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9995415255058053</v>
+        <v>0.9913393125512373</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4031,23 +4031,23 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72100.fa</t>
+          <t>even_MAG-GUT72571.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.004902709770171148</v>
+        <v>0.01142465517152617</v>
       </c>
       <c r="C113" t="n">
-        <v>8.675530161575344e-05</v>
+        <v>0.007129995310250354</v>
       </c>
       <c r="D113" t="n">
-        <v>0.995010504056561</v>
+        <v>0.9814453494875658</v>
       </c>
       <c r="E113" t="n">
-        <v>3.087165206173299e-08</v>
+        <v>3.065772138290001e-11</v>
       </c>
       <c r="F113" t="n">
-        <v>0.995010504056561</v>
+        <v>0.9814453494875658</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4063,23 +4063,23 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72283.fa</t>
+          <t>even_MAG-GUT72585.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.004445556683201973</v>
+        <v>0.0004459701121452365</v>
       </c>
       <c r="C114" t="n">
-        <v>0.004215130760681116</v>
+        <v>0.01886126535543447</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9913393125512373</v>
+        <v>0.9806927645001936</v>
       </c>
       <c r="E114" t="n">
-        <v>4.879595022548564e-12</v>
+        <v>3.222668422312383e-11</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9913393125512373</v>
+        <v>0.9806927645001936</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4095,23 +4095,23 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72571.fa</t>
+          <t>even_MAG-GUT72832.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.01142465517152617</v>
+        <v>0.006565011923754222</v>
       </c>
       <c r="C115" t="n">
-        <v>0.007129995310250354</v>
+        <v>0.002532211435932141</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9814453494875658</v>
+        <v>0.9909027766079729</v>
       </c>
       <c r="E115" t="n">
-        <v>3.065772138290001e-11</v>
+        <v>3.234076678124978e-11</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9814453494875658</v>
+        <v>0.9909027766079729</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4127,23 +4127,23 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72585.fa</t>
+          <t>even_MAG-GUT72841.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.0004459701121452365</v>
+        <v>0.004734806949267314</v>
       </c>
       <c r="C116" t="n">
-        <v>0.01886126535543447</v>
+        <v>0.01449592289084577</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9806927645001936</v>
+        <v>0.9807692701593639</v>
       </c>
       <c r="E116" t="n">
-        <v>3.222668422312383e-11</v>
+        <v>5.229215472849342e-13</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9806927645001936</v>
+        <v>0.9807692701593639</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4159,23 +4159,23 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72832.fa</t>
+          <t>even_MAG-GUT73024.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.006565011923754222</v>
+        <v>0.002655666710258728</v>
       </c>
       <c r="C117" t="n">
-        <v>0.002532211435932141</v>
+        <v>0.004084170450793278</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9909027766079729</v>
+        <v>0.993260162610374</v>
       </c>
       <c r="E117" t="n">
-        <v>3.234076678124978e-11</v>
+        <v>2.285740735680196e-10</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9909027766079729</v>
+        <v>0.993260162610374</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4191,23 +4191,23 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72841.fa</t>
+          <t>even_MAG-GUT73734.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.004734806949267314</v>
+        <v>0.001658962049373401</v>
       </c>
       <c r="C118" t="n">
-        <v>0.01449592289084577</v>
+        <v>0.003228949044632729</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9807692701593639</v>
+        <v>0.9951120889040367</v>
       </c>
       <c r="E118" t="n">
-        <v>5.229215472849342e-13</v>
+        <v>1.957164155652331e-12</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9807692701593639</v>
+        <v>0.9951120889040367</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4223,23 +4223,23 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73024.fa</t>
+          <t>even_MAG-GUT73909.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.002655666710258728</v>
+        <v>0.004615154953072454</v>
       </c>
       <c r="C119" t="n">
-        <v>0.004084170450793278</v>
+        <v>0.00621461271091694</v>
       </c>
       <c r="D119" t="n">
-        <v>0.993260162610374</v>
+        <v>0.9891702323348408</v>
       </c>
       <c r="E119" t="n">
-        <v>2.285740735680196e-10</v>
+        <v>1.169731894242248e-12</v>
       </c>
       <c r="F119" t="n">
-        <v>0.993260162610374</v>
+        <v>0.9891702323348408</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4255,23 +4255,23 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73734.fa</t>
+          <t>even_MAG-GUT73910.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.001658962049373401</v>
+        <v>0.003923770193366129</v>
       </c>
       <c r="C120" t="n">
-        <v>0.003228949044632729</v>
+        <v>0.000274858805966496</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9951120889040367</v>
+        <v>0.9958013710006417</v>
       </c>
       <c r="E120" t="n">
-        <v>1.957164155652331e-12</v>
+        <v>2.56325150392304e-14</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9951120889040367</v>
+        <v>0.9958013710006417</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4287,23 +4287,23 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73909.fa</t>
+          <t>even_MAG-GUT74302.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.004615154953072454</v>
+        <v>0.003443744150381623</v>
       </c>
       <c r="C121" t="n">
-        <v>0.00621461271091694</v>
+        <v>0.002682597496294977</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9891702323348408</v>
+        <v>0.9938736510586446</v>
       </c>
       <c r="E121" t="n">
-        <v>1.169731894242248e-12</v>
+        <v>7.294678938971512e-09</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9891702323348408</v>
+        <v>0.9938736510586446</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4319,23 +4319,23 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73910.fa</t>
+          <t>even_MAG-GUT74323.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.003923770193366129</v>
+        <v>0.001013893012574369</v>
       </c>
       <c r="C122" t="n">
-        <v>0.000274858805966496</v>
+        <v>0.000250124235717297</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9958013710006417</v>
+        <v>0.9987359695887799</v>
       </c>
       <c r="E122" t="n">
-        <v>2.56325150392304e-14</v>
+        <v>1.316292839943554e-08</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9958013710006417</v>
+        <v>0.9987359695887799</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4351,23 +4351,23 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74302.fa</t>
+          <t>even_MAG-GUT74335.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.003443744150381623</v>
+        <v>0.001650513613782474</v>
       </c>
       <c r="C123" t="n">
-        <v>0.002682597496294977</v>
+        <v>6.394679942027336e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9938736510586446</v>
+        <v>0.9982855375776523</v>
       </c>
       <c r="E123" t="n">
-        <v>7.294678938971512e-09</v>
+        <v>2.009144935343956e-09</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9938736510586446</v>
+        <v>0.9982855375776523</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4383,23 +4383,23 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74323.fa</t>
+          <t>even_MAG-GUT74695.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.001013893012574369</v>
+        <v>0.0003892647552421084</v>
       </c>
       <c r="C124" t="n">
-        <v>0.000250124235717297</v>
+        <v>0.00328895199022576</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9987359695887799</v>
+        <v>0.9963166350970756</v>
       </c>
       <c r="E124" t="n">
-        <v>1.316292839943554e-08</v>
+        <v>5.148157456500657e-06</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9987359695887799</v>
+        <v>0.9963166350970756</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4415,23 +4415,23 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74335.fa</t>
+          <t>even_MAG-GUT75478.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.001650513613782474</v>
+        <v>0.0009012524815792619</v>
       </c>
       <c r="C125" t="n">
-        <v>6.394679942027336e-05</v>
+        <v>0.0006977607769152631</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9982855375776523</v>
+        <v>0.9984009766435454</v>
       </c>
       <c r="E125" t="n">
-        <v>2.009144935343956e-09</v>
+        <v>1.009796002626641e-08</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9982855375776523</v>
+        <v>0.9984009766435454</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4447,23 +4447,23 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74695.fa</t>
+          <t>even_MAG-GUT76906.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.0003892647552421084</v>
+        <v>0.001005109003571032</v>
       </c>
       <c r="C126" t="n">
-        <v>0.00328895199022576</v>
+        <v>0.004921256843926888</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9963166350970756</v>
+        <v>0.9940735911454278</v>
       </c>
       <c r="E126" t="n">
-        <v>5.148157456500657e-06</v>
+        <v>4.300707430113012e-08</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9963166350970756</v>
+        <v>0.9940735911454278</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4479,23 +4479,23 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75478.fa</t>
+          <t>even_MAG-GUT76981.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.0009012524815792619</v>
+        <v>0.0001162160000373597</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0006977607769152631</v>
+        <v>0.002441933333412558</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9984009766435454</v>
+        <v>0.9974418448187826</v>
       </c>
       <c r="E127" t="n">
-        <v>1.009796002626641e-08</v>
+        <v>5.847767468793749e-09</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9984009766435454</v>
+        <v>0.9974418448187826</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4511,23 +4511,23 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76906.fa</t>
+          <t>even_MAG-GUT76988.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.001005109003571032</v>
+        <v>0.0007833097197089227</v>
       </c>
       <c r="C128" t="n">
-        <v>0.004921256843926888</v>
+        <v>0.004790497778785717</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9940735911454278</v>
+        <v>0.9944261858270307</v>
       </c>
       <c r="E128" t="n">
-        <v>4.300707430113012e-08</v>
+        <v>6.674474648098244e-09</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9940735911454278</v>
+        <v>0.9944261858270307</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4543,23 +4543,23 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76981.fa</t>
+          <t>even_MAG-GUT76995.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.0001162160000373597</v>
+        <v>0.008128303813022552</v>
       </c>
       <c r="C129" t="n">
-        <v>0.002441933333412558</v>
+        <v>0.001920743337496447</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9974418448187826</v>
+        <v>0.9899509528275228</v>
       </c>
       <c r="E129" t="n">
-        <v>5.847767468793749e-09</v>
+        <v>2.195824138966697e-11</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9974418448187826</v>
+        <v>0.9899509528275228</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4575,23 +4575,23 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76988.fa</t>
+          <t>even_MAG-GUT77004.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.0007833097197089227</v>
+        <v>4.398411899599111e-05</v>
       </c>
       <c r="C130" t="n">
-        <v>0.004790497778785717</v>
+        <v>0.001955062454256824</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9944261858270307</v>
+        <v>0.9980009382516897</v>
       </c>
       <c r="E130" t="n">
-        <v>6.674474648098244e-09</v>
+        <v>1.517505748802987e-08</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9944261858270307</v>
+        <v>0.9980009382516897</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4607,23 +4607,23 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76995.fa</t>
+          <t>even_MAG-GUT77348.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.008128303813022552</v>
+        <v>0.0008919212882714186</v>
       </c>
       <c r="C131" t="n">
-        <v>0.001920743337496447</v>
+        <v>0.003136914905027449</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9899509528275228</v>
+        <v>0.9959711638056428</v>
       </c>
       <c r="E131" t="n">
-        <v>2.195824138966697e-11</v>
+        <v>1.058329247147879e-12</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9899509528275228</v>
+        <v>0.9959711638056428</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4639,23 +4639,23 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77004.fa</t>
+          <t>even_MAG-GUT77357.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>4.398411899599111e-05</v>
+        <v>0.008059666177383126</v>
       </c>
       <c r="C132" t="n">
-        <v>0.001955062454256824</v>
+        <v>0.004148073950920266</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9980009382516897</v>
+        <v>0.9877922598715493</v>
       </c>
       <c r="E132" t="n">
-        <v>1.517505748802987e-08</v>
+        <v>1.472910821207616e-13</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9980009382516897</v>
+        <v>0.9877922598715493</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4671,23 +4671,23 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77348.fa</t>
+          <t>even_MAG-GUT77371.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.0008919212882714186</v>
+        <v>0.002046372475935373</v>
       </c>
       <c r="C133" t="n">
-        <v>0.003136914905027449</v>
+        <v>0.001530400401172687</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9959711638056428</v>
+        <v>0.9964232271228277</v>
       </c>
       <c r="E133" t="n">
-        <v>1.058329247147879e-12</v>
+        <v>6.413185872537867e-14</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9959711638056428</v>
+        <v>0.9964232271228277</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4703,23 +4703,23 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77357.fa</t>
+          <t>even_MAG-GUT77389.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.008059666177383126</v>
+        <v>0.002854918983836784</v>
       </c>
       <c r="C134" t="n">
-        <v>0.004148073950920266</v>
+        <v>0.001202171344454794</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9877922598715493</v>
+        <v>0.9959429096716295</v>
       </c>
       <c r="E134" t="n">
-        <v>1.472910821207616e-13</v>
+        <v>7.896934419033175e-14</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9877922598715493</v>
+        <v>0.9959429096716295</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4735,119 +4735,119 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77371.fa</t>
+          <t>even_MAG-GUT77514.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.002046372475935373</v>
+        <v>0.9934136084320203</v>
       </c>
       <c r="C135" t="n">
-        <v>0.001530400401172687</v>
+        <v>0.001683795801305814</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9964232271228277</v>
+        <v>0.004902595766651678</v>
       </c>
       <c r="E135" t="n">
-        <v>6.413185872537867e-14</v>
+        <v>2.220134845748103e-14</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9964232271228277</v>
+        <v>0.9934136084320203</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>g__CAG-495</t>
+          <t>g__51-20</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>g__CAG-495</t>
+          <t>g__51-20</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77389.fa</t>
+          <t>even_MAG-GUT77526.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.002854918983836784</v>
+        <v>0.9532259368489907</v>
       </c>
       <c r="C136" t="n">
-        <v>0.001202171344454794</v>
+        <v>8.461865040951601e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9959429096716295</v>
+        <v>0.04668944450057769</v>
       </c>
       <c r="E136" t="n">
-        <v>7.896934419033175e-14</v>
+        <v>2.218421576968396e-14</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9959429096716295</v>
+        <v>0.9532259368489907</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>g__CAG-495</t>
+          <t>g__51-20</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>g__CAG-495</t>
+          <t>g__51-20</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77514.fa</t>
+          <t>even_MAG-GUT77839.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.9934136084320203</v>
+        <v>0.004661332696678846</v>
       </c>
       <c r="C137" t="n">
-        <v>0.001683795801305814</v>
+        <v>0.001276108615659033</v>
       </c>
       <c r="D137" t="n">
-        <v>0.004902595766651678</v>
+        <v>0.9940625177580874</v>
       </c>
       <c r="E137" t="n">
-        <v>2.220134845748103e-14</v>
+        <v>4.092957478761876e-08</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9934136084320203</v>
+        <v>0.9940625177580874</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>g__51-20</t>
+          <t>g__CAG-495</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>g__51-20</t>
+          <t>g__CAG-495</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77526.fa</t>
+          <t>even_MAG-GUT78207.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.9532259368489907</v>
+        <v>0.9921469445637204</v>
       </c>
       <c r="C138" t="n">
-        <v>8.461865040951601e-05</v>
+        <v>0.000422215954306244</v>
       </c>
       <c r="D138" t="n">
-        <v>0.04668944450057769</v>
+        <v>0.00743083948194989</v>
       </c>
       <c r="E138" t="n">
-        <v>2.218421576968396e-14</v>
+        <v>2.326617776592347e-14</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9532259368489907</v>
+        <v>0.9921469445637204</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -4863,23 +4863,23 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77839.fa</t>
+          <t>even_MAG-GUT82789.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.004661332696678846</v>
+        <v>0.006837495463038861</v>
       </c>
       <c r="C139" t="n">
-        <v>0.001276108615659033</v>
+        <v>0.0009073406980916941</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9940625177580874</v>
+        <v>0.992255163838762</v>
       </c>
       <c r="E139" t="n">
-        <v>4.092957478761876e-08</v>
+        <v>1.074509245383765e-13</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9940625177580874</v>
+        <v>0.992255163838762</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4895,55 +4895,55 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78207.fa</t>
+          <t>even_MAG-GUT83636.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.9921469445637204</v>
+        <v>0.0009807390354942042</v>
       </c>
       <c r="C140" t="n">
-        <v>0.000422215954306244</v>
+        <v>0.07272008628775645</v>
       </c>
       <c r="D140" t="n">
-        <v>0.00743083948194989</v>
+        <v>0.9262959931832636</v>
       </c>
       <c r="E140" t="n">
-        <v>2.326617776592347e-14</v>
+        <v>3.181493485746665e-06</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9921469445637204</v>
+        <v>0.9262959931832636</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>g__51-20</t>
+          <t>g__CAG-495</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>g__51-20</t>
+          <t>g__CAG-495</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79180.fa</t>
+          <t>even_MAG-GUT83640.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.04483723361444572</v>
+        <v>0.003707821334692152</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4166584556320347</v>
+        <v>0.00441012354107257</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5175958201802426</v>
+        <v>0.9918820547984472</v>
       </c>
       <c r="E141" t="n">
-        <v>0.02090849057327695</v>
+        <v>3.257881759659683e-10</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5175958201802426</v>
+        <v>0.9918820547984472</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -4952,30 +4952,30 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>g__CAG-495(reject)</t>
+          <t>g__CAG-495</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82789.fa</t>
+          <t>even_MAG-GUT83666.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.006837495463038861</v>
+        <v>0.001313738714460784</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0009073406980916941</v>
+        <v>0.000266239602338376</v>
       </c>
       <c r="D142" t="n">
-        <v>0.992255163838762</v>
+        <v>0.9984200216831455</v>
       </c>
       <c r="E142" t="n">
-        <v>1.074509245383765e-13</v>
+        <v>5.537872177010004e-14</v>
       </c>
       <c r="F142" t="n">
-        <v>0.992255163838762</v>
+        <v>0.9984200216831455</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -4991,23 +4991,23 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83636.fa</t>
+          <t>even_MAG-GUT83683.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.0009807390354942042</v>
+        <v>0.008200656597747269</v>
       </c>
       <c r="C143" t="n">
-        <v>0.07272008628775645</v>
+        <v>0.008942300917135085</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9262959931832636</v>
+        <v>0.98285704244273</v>
       </c>
       <c r="E143" t="n">
-        <v>3.181493485746665e-06</v>
+        <v>4.238779028539181e-11</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9262959931832636</v>
+        <v>0.98285704244273</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -5023,23 +5023,23 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83640.fa</t>
+          <t>even_MAG-GUT840.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.003707821334692152</v>
+        <v>5.970004167829482e-05</v>
       </c>
       <c r="C144" t="n">
-        <v>0.00441012354107257</v>
+        <v>0.004810213102915119</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9918820547984472</v>
+        <v>0.9949762413870377</v>
       </c>
       <c r="E144" t="n">
-        <v>3.257881759659683e-10</v>
+        <v>0.000153845468368898</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9918820547984472</v>
+        <v>0.9949762413870377</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -5055,23 +5055,23 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83666.fa</t>
+          <t>even_MAG-GUT84088.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.001313738714460784</v>
+        <v>0.001425517163800959</v>
       </c>
       <c r="C145" t="n">
-        <v>0.000266239602338376</v>
+        <v>0.0006826193074851558</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9984200216831455</v>
+        <v>0.9978918635211358</v>
       </c>
       <c r="E145" t="n">
-        <v>5.537872177010004e-14</v>
+        <v>7.57809004731532e-12</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9984200216831455</v>
+        <v>0.9978918635211358</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -5087,23 +5087,23 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83683.fa</t>
+          <t>even_MAG-GUT84361.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.008200656597747269</v>
+        <v>0.005134962843129921</v>
       </c>
       <c r="C146" t="n">
-        <v>0.008942300917135085</v>
+        <v>0.003252250220784719</v>
       </c>
       <c r="D146" t="n">
-        <v>0.98285704244273</v>
+        <v>0.9916127869150061</v>
       </c>
       <c r="E146" t="n">
-        <v>4.238779028539181e-11</v>
+        <v>2.107923323903107e-11</v>
       </c>
       <c r="F146" t="n">
-        <v>0.98285704244273</v>
+        <v>0.9916127869150061</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -5119,23 +5119,23 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT840.fa</t>
+          <t>even_MAG-GUT84374.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>5.970004167829482e-05</v>
+        <v>0.01055793612358319</v>
       </c>
       <c r="C147" t="n">
-        <v>0.004810213102915119</v>
+        <v>0.0204948713243685</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9949762413870377</v>
+        <v>0.9689471923105815</v>
       </c>
       <c r="E147" t="n">
-        <v>0.000153845468368898</v>
+        <v>2.414666872983138e-10</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9949762413870377</v>
+        <v>0.9689471923105815</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5151,23 +5151,23 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84088.fa</t>
+          <t>even_MAG-GUT84479.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.001425517163800959</v>
+        <v>0.003340794451741698</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0006826193074851558</v>
+        <v>0.003544665642942562</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9978918635211358</v>
+        <v>0.9931145393449475</v>
       </c>
       <c r="E148" t="n">
-        <v>7.57809004731532e-12</v>
+        <v>5.603681893707087e-10</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9978918635211358</v>
+        <v>0.9931145393449475</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5183,23 +5183,23 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84361.fa</t>
+          <t>even_MAG-GUT85462.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.005134962843129921</v>
+        <v>0.002523936660357859</v>
       </c>
       <c r="C149" t="n">
-        <v>0.003252250220784719</v>
+        <v>0.001522504639008825</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9916127869150061</v>
+        <v>0.9959535586997543</v>
       </c>
       <c r="E149" t="n">
-        <v>2.107923323903107e-11</v>
+        <v>8.78937754892266e-13</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9916127869150061</v>
+        <v>0.9959535586997543</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5215,23 +5215,23 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84374.fa</t>
+          <t>even_MAG-GUT85601.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.01055793612358319</v>
+        <v>0.0152556888862662</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0204948713243685</v>
+        <v>0.002608260210465924</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9689471923105815</v>
+        <v>0.9821360508881759</v>
       </c>
       <c r="E150" t="n">
-        <v>2.414666872983138e-10</v>
+        <v>1.509208948268245e-11</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9689471923105815</v>
+        <v>0.9821360508881759</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5247,23 +5247,23 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84479.fa</t>
+          <t>even_MAG-GUT85702.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.003340794451741698</v>
+        <v>0.001123697171419673</v>
       </c>
       <c r="C151" t="n">
-        <v>0.003544665642942562</v>
+        <v>0.004769213208343634</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9931145393449475</v>
+        <v>0.994107089619768</v>
       </c>
       <c r="E151" t="n">
-        <v>5.603681893707087e-10</v>
+        <v>4.68615692697113e-13</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9931145393449475</v>
+        <v>0.994107089619768</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -5279,23 +5279,23 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85462.fa</t>
+          <t>even_MAG-GUT85992.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.002523936660357859</v>
+        <v>0.0006308073632273099</v>
       </c>
       <c r="C152" t="n">
-        <v>0.001522504639008825</v>
+        <v>0.01965176218540183</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9959535586997543</v>
+        <v>0.9797174304507726</v>
       </c>
       <c r="E152" t="n">
-        <v>8.78937754892266e-13</v>
+        <v>5.982573482785649e-13</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9959535586997543</v>
+        <v>0.9797174304507726</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5311,23 +5311,23 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85601.fa</t>
+          <t>even_MAG-GUT86329.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.0152556888862662</v>
+        <v>0.004894530361867246</v>
       </c>
       <c r="C153" t="n">
-        <v>0.002608260210465924</v>
+        <v>0.01330094754809828</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9821360508881759</v>
+        <v>0.9818045220899195</v>
       </c>
       <c r="E153" t="n">
-        <v>1.509208948268245e-11</v>
+        <v>1.15125625472962e-13</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9821360508881759</v>
+        <v>0.9818045220899195</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5343,23 +5343,23 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85702.fa</t>
+          <t>even_MAG-GUT86341.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.001123697171419673</v>
+        <v>0.0001697593237755445</v>
       </c>
       <c r="C154" t="n">
-        <v>0.004769213208343634</v>
+        <v>0.007845859298589218</v>
       </c>
       <c r="D154" t="n">
-        <v>0.994107089619768</v>
+        <v>0.9919843813730809</v>
       </c>
       <c r="E154" t="n">
-        <v>4.68615692697113e-13</v>
+        <v>4.554358627916989e-12</v>
       </c>
       <c r="F154" t="n">
-        <v>0.994107089619768</v>
+        <v>0.9919843813730809</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5375,23 +5375,23 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85992.fa</t>
+          <t>even_MAG-GUT86352.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.0006308073632273099</v>
+        <v>0.01207560239739564</v>
       </c>
       <c r="C155" t="n">
-        <v>0.01965176218540183</v>
+        <v>0.02287344372960863</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9797174304507726</v>
+        <v>0.9650509538551298</v>
       </c>
       <c r="E155" t="n">
-        <v>5.982573482785649e-13</v>
+        <v>1.78659073899419e-11</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9797174304507726</v>
+        <v>0.9650509538551298</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5407,23 +5407,23 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86329.fa</t>
+          <t>even_MAG-GUT86570.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.004894530361867246</v>
+        <v>0.005757483101889539</v>
       </c>
       <c r="C156" t="n">
-        <v>0.01330094754809828</v>
+        <v>0.01262571226760254</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9818045220899195</v>
+        <v>0.9816168046280976</v>
       </c>
       <c r="E156" t="n">
-        <v>1.15125625472962e-13</v>
+        <v>2.410389409202074e-12</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9818045220899195</v>
+        <v>0.9816168046280976</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -5431,102 +5431,6 @@
         </is>
       </c>
       <c r="H156" t="inlineStr">
-        <is>
-          <t>g__CAG-495</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86341.fa</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>0.0001697593237755445</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0.007845859298589218</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.9919843813730809</v>
-      </c>
-      <c r="E157" t="n">
-        <v>4.554358627916989e-12</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.9919843813730809</v>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>g__CAG-495</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>g__CAG-495</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86352.fa</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>0.01207560239739564</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.02287344372960863</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.9650509538551298</v>
-      </c>
-      <c r="E158" t="n">
-        <v>1.78659073899419e-11</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0.9650509538551298</v>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>g__CAG-495</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>g__CAG-495</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86570.fa</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>0.005757483101889539</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0.01262571226760254</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.9816168046280976</v>
-      </c>
-      <c r="E159" t="n">
-        <v>2.410389409202074e-12</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0.9816168046280976</v>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>g__CAG-495</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
         <is>
           <t>g__CAG-495</t>
         </is>

--- a/outputs-HGR-r202/f__CAG-239.xlsx
+++ b/outputs-HGR-r202/f__CAG-239.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +726,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -713,6 +758,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -740,6 +790,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +822,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -794,6 +854,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -821,6 +886,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -848,6 +918,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -875,6 +950,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -902,6 +982,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -929,6 +1014,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -956,6 +1046,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -983,6 +1078,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1010,6 +1110,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1037,6 +1142,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1064,6 +1174,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1091,6 +1206,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1118,6 +1238,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1145,6 +1270,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1172,6 +1302,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1199,6 +1334,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1226,6 +1366,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1253,6 +1398,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1280,6 +1430,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1307,6 +1462,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1334,6 +1494,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1361,6 +1526,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1388,6 +1558,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1415,6 +1590,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1442,6 +1622,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1469,6 +1654,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1496,6 +1686,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1523,6 +1718,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1550,6 +1750,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1577,6 +1782,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1604,6 +1814,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1631,6 +1846,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1658,6 +1878,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1685,6 +1910,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1712,6 +1942,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1739,6 +1974,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1766,6 +2006,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1793,6 +2038,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1820,6 +2070,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1847,6 +2102,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1874,6 +2134,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1901,6 +2166,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1928,6 +2198,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1955,6 +2230,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1982,6 +2262,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2009,6 +2294,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2036,6 +2326,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2063,6 +2358,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2090,6 +2390,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2117,6 +2422,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2144,6 +2454,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2171,6 +2486,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2198,6 +2518,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2225,6 +2550,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2252,6 +2582,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2279,6 +2614,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2306,6 +2646,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2333,6 +2678,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2360,6 +2710,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>g__CAG-495(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2387,6 +2742,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2414,6 +2774,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2441,6 +2806,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2468,6 +2838,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2495,6 +2870,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2522,6 +2902,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2549,6 +2934,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -2576,6 +2966,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -2603,6 +2998,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2630,6 +3030,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -2657,6 +3062,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2684,6 +3094,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2711,6 +3126,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -2738,6 +3158,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -2765,6 +3190,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2792,6 +3222,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2819,6 +3254,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2846,6 +3286,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2873,6 +3318,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2900,6 +3350,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2927,6 +3382,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2954,6 +3414,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2981,6 +3446,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3008,6 +3478,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3035,6 +3510,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3062,6 +3542,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -3089,6 +3574,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -3116,6 +3606,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -3143,6 +3638,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -3170,6 +3670,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -3197,6 +3702,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -3224,6 +3734,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -3251,6 +3766,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -3278,6 +3798,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -3305,6 +3830,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -3332,6 +3862,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -3359,6 +3894,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -3386,6 +3926,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -3413,6 +3958,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -3440,6 +3990,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -3467,6 +4022,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -3494,6 +4054,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -3521,6 +4086,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -3548,6 +4118,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -3575,6 +4150,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -3602,6 +4182,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -3629,6 +4214,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -3656,6 +4246,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -3683,6 +4278,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -3710,6 +4310,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -3737,6 +4342,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -3764,6 +4374,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -3791,6 +4406,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -3818,6 +4438,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -3845,6 +4470,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -3872,6 +4502,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -3899,6 +4534,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -3926,6 +4566,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -3953,6 +4598,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -3980,6 +4630,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -4007,6 +4662,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -4034,6 +4694,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -4061,6 +4726,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -4088,6 +4758,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -4115,6 +4790,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -4142,6 +4822,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -4169,6 +4854,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -4196,6 +4886,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -4223,6 +4918,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -4250,6 +4950,11 @@
           <t>g__51-20</t>
         </is>
       </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>g__51-20</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -4277,6 +4982,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>g__CAG-495(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -4304,6 +5014,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -4331,6 +5046,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -4358,6 +5078,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -4385,6 +5110,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -4412,6 +5142,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -4439,6 +5174,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -4466,6 +5206,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -4493,6 +5238,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -4520,6 +5270,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -4547,6 +5302,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -4574,6 +5334,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -4601,6 +5366,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -4628,6 +5398,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -4655,6 +5430,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -4682,6 +5462,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -4709,6 +5494,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -4736,6 +5526,11 @@
           <t>g__CAG-495</t>
         </is>
       </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -4759,6 +5554,11 @@
         <v>0.9816168046280976</v>
       </c>
       <c r="G160" t="inlineStr">
+        <is>
+          <t>g__CAG-495</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
         <is>
           <t>g__CAG-495</t>
         </is>

--- a/outputs-HGR-r202/f__CAG-239.xlsx
+++ b/outputs-HGR-r202/f__CAG-239.xlsx
@@ -1240,7 +1240,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>g__CAG-495</t>
+          <t>g__CAG-495(reject)</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>g__CAG-495</t>
+          <t>g__CAG-495(reject)</t>
         </is>
       </c>
     </row>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>g__CAG-495</t>
+          <t>g__CAG-495(reject)</t>
         </is>
       </c>
     </row>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>g__CAG-495</t>
+          <t>g__CAG-495(reject)</t>
         </is>
       </c>
     </row>
